--- a/fine_granularity/results_table/rq2.xlsx
+++ b/fine_granularity/results_table/rq2.xlsx
@@ -1767,22 +1767,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1923318667504714</v>
+        <v>0.19</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6219512195121951</v>
+        <v>0.62</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2938070091214594</v>
+        <v>0.29</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2816091954022988</v>
+        <v>0.28</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1991869918699187</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.23</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1794,40 +1794,40 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1599474145486415</v>
+        <v>0.16</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7418699186991869</v>
+        <v>0.74</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.26</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2361219702892885</v>
+        <v>0.24</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6138211382113821</v>
+        <v>0.61</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3410502540937323</v>
+        <v>0.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1195652173913043</v>
+        <v>0.12</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.29</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.17</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1752577319587628</v>
+        <v>0.18</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3834586466165413</v>
+        <v>0.38</v>
       </c>
       <c r="V5" t="n">
-        <v>0.240566037735849</v>
+        <v>0.24</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1839,37 +1839,37 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2142857142857142</v>
+        <v>0.21</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0338345864661654</v>
+        <v>0.03</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0584415584415584</v>
+        <v>0.06</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.41</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.06390977443609019</v>
+        <v>0.06</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1107491856677524</v>
+        <v>0.11</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.4761904761904761</v>
+        <v>0.48</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1408450704225352</v>
+        <v>0.14</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.217391304347826</v>
+        <v>0.22</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.2465753424657534</v>
+        <v>0.25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2535211267605634</v>
+        <v>0.25</v>
       </c>
       <c r="AK5" t="n">
         <v>0.25</v>
@@ -1884,22 +1884,22 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.43</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0422535211267605</v>
+        <v>0.04</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.08</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.67</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.1126760563380281</v>
+        <v>0.11</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.19</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1911,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.06</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0246913580246913</v>
+        <v>0.02</v>
       </c>
       <c r="BA5" t="n">
         <v>0</v>
@@ -1947,22 +1947,22 @@
         <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.04</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.06451612903225799</v>
+        <v>0.06</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
@@ -1983,31 +1983,31 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.04</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.06451612903225799</v>
+        <v>0.06</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.57</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.57</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.57</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.25</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.65</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.36</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2022,19 +2022,19 @@
         <v>0.6</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.52</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CK5" t="n">
         <v>0.4</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.09</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="CN5" t="n">
         <v>0</v>
@@ -2046,22 +2046,22 @@
         <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.3</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0804597701149425</v>
+        <v>0.08</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.1272727272727272</v>
+        <v>0.13</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.06868811881188119</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.64</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.124022346368715</v>
+        <v>0.12</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0114942528735632</v>
+        <v>0.01</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0227272727272727</v>
+        <v>0.02</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2091,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.037037037037037</v>
+        <v>0.04</v>
       </c>
       <c r="DI5" t="n">
         <v>0</v>
@@ -2127,22 +2127,22 @@
         <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.1904761904761904</v>
+        <v>0.19</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.14</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.1589403973509933</v>
+        <v>0.16</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.1636363636363636</v>
+        <v>0.16</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.3579545454545454</v>
+        <v>0.36</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.2245989304812834</v>
+        <v>0.22</v>
       </c>
       <c r="DX5" t="n">
         <v>0</v>
@@ -2154,67 +2154,67 @@
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.205607476635514</v>
+        <v>0.21</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.1554770318021201</v>
+        <v>0.16</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.20703125</v>
+        <v>0.21</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.3011363636363636</v>
+        <v>0.3</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.2453703703703703</v>
+        <v>0.25</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.9001447178002895</v>
+        <v>0.9</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.6900377191036166</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.781210751067571</v>
+        <v>0.78</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.8721174004192872</v>
+        <v>0.87</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.8307077878855115</v>
+        <v>0.83</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.8509090909090909</v>
+        <v>0.85</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.8480170980764664</v>
+        <v>0.85</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.7923230530286222</v>
+        <v>0.79</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.8192245927965129</v>
+        <v>0.82</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.88</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.6685156423341468</v>
+        <v>0.67</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.7615316567673449</v>
+        <v>0.76</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.8520079875748835</v>
+        <v>0.85</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.8748148991912519</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
@@ -2224,22 +2224,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1408450704225352</v>
+        <v>0.14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4674796747967479</v>
+        <v>0.47</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2164705882352941</v>
+        <v>0.22</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2417582417582417</v>
+        <v>0.24</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1341463414634146</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1725490196078431</v>
+        <v>0.17</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2251,40 +2251,40 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2404371584699453</v>
+        <v>0.24</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3577235772357723</v>
+        <v>0.36</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2875816993464052</v>
+        <v>0.29</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2620865139949109</v>
+        <v>0.26</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4186991869918699</v>
+        <v>0.42</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3223787167449139</v>
+        <v>0.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0561630218687872</v>
+        <v>0.06</v>
       </c>
       <c r="R6" t="n">
-        <v>0.424812030075188</v>
+        <v>0.42</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0992098331870061</v>
+        <v>0.1</v>
       </c>
       <c r="T6" t="n">
-        <v>0.196078431372549</v>
+        <v>0.2</v>
       </c>
       <c r="U6" t="n">
-        <v>0.112781954887218</v>
+        <v>0.11</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1431980906921241</v>
+        <v>0.14</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -2296,22 +2296,22 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.051433389544688</v>
+        <v>0.05</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6879699248120301</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0957112970711297</v>
+        <v>0.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1554878048780487</v>
+        <v>0.16</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1917293233082706</v>
+        <v>0.19</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.17</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1940298507462686</v>
+        <v>0.19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.3661971830985915</v>
+        <v>0.37</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.2536585365853658</v>
+        <v>0.25</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -2341,22 +2341,22 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.0140845070422535</v>
+        <v>0.01</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.027027027027027</v>
+        <v>0.03</v>
       </c>
       <c r="AR6" t="n">
         <v>0.55</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.1549295774647887</v>
+        <v>0.15</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.2417582417582417</v>
+        <v>0.24</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.08</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.1</v>
       </c>
       <c r="BA6" t="n">
         <v>0</v>
@@ -2386,22 +2386,22 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.018348623853211</v>
+        <v>0.02</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.0231213872832369</v>
+        <v>0.02</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.11</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.078125</v>
+        <v>0.08</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0925925925925925</v>
+        <v>0.09</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -2413,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.065040650406504</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.29</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.1059602649006622</v>
+        <v>0.11</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
@@ -2440,31 +2440,31 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.18</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.27</v>
       </c>
       <c r="BY6" t="n">
         <v>1</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.04</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.17</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.48</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.247191011235955</v>
+        <v>0.25</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.217391304347826</v>
+        <v>0.22</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.32</v>
       </c>
       <c r="CK6" t="n">
         <v>0.8</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.1739130434782608</v>
+        <v>0.17</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.29</v>
       </c>
       <c r="CN6" t="n">
         <v>0</v>
@@ -2503,40 +2503,40 @@
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.18</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.09770114942528731</v>
+        <v>0.1</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.1273408239700374</v>
+        <v>0.13</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0894064613072877</v>
+        <v>0.09</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.6839080459770115</v>
+        <v>0.68</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.1581395348837209</v>
+        <v>0.16</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.17</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.0057471264367816</v>
+        <v>0.01</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.0111111111111111</v>
+        <v>0.01</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.29</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.0114942528735632</v>
+        <v>0.01</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0220994475138121</v>
+        <v>0.02</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2548,22 +2548,22 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0580357142857142</v>
+        <v>0.06</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.19</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.0884353741496598</v>
+        <v>0.09</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.09</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.0142857142857142</v>
+        <v>0.01</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0246913580246913</v>
+        <v>0.02</v>
       </c>
       <c r="DL6" t="n">
         <v>0</v>
@@ -2578,10 +2578,10 @@
         <v>0.25</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.0142857142857142</v>
+        <v>0.01</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.027027027027027</v>
+        <v>0.03</v>
       </c>
       <c r="DR6" t="n">
         <v>0</v>
@@ -2593,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.1531531531531531</v>
+        <v>0.15</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.1931818181818181</v>
+        <v>0.19</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.1708542713567839</v>
+        <v>0.17</v>
       </c>
       <c r="DX6" t="n">
         <v>0</v>
@@ -2611,67 +2611,67 @@
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.1879432624113475</v>
+        <v>0.19</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.3011363636363636</v>
+        <v>0.3</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.2314410480349345</v>
+        <v>0.23</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.13</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.3522727272727273</v>
+        <v>0.35</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.1934477379095164</v>
+        <v>0.19</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.8584310189359784</v>
+        <v>0.86</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.4224539605058797</v>
+        <v>0.42</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.5662453531598513</v>
+        <v>0.57</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.8577807546327305</v>
+        <v>0.86</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.8524517417350788</v>
+        <v>0.85</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.8551079456933007</v>
+        <v>0.86</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.855732555530626</v>
+        <v>0.86</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.8462391834923453</v>
+        <v>0.85</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.8509593931280678</v>
+        <v>0.85</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.897172236503856</v>
+        <v>0.9</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.2323053028622143</v>
+        <v>0.23</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.3690518152978498</v>
+        <v>0.37</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.8886509635974305</v>
+        <v>0.89</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.8287108941646328</v>
+        <v>0.83</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.8576349024110218</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7">
@@ -2681,22 +2681,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1869517543859649</v>
+        <v>0.19</v>
       </c>
       <c r="C7" t="n">
-        <v>0.693089430894309</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2944732297063903</v>
+        <v>0.29</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2750455373406193</v>
+        <v>0.28</v>
       </c>
       <c r="F7" t="n">
-        <v>0.306910569105691</v>
+        <v>0.31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2901056676272814</v>
+        <v>0.29</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2708,40 +2708,40 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.195920889987639</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6443089430894309</v>
+        <v>0.64</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3004739336492891</v>
+        <v>0.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1847411444141689</v>
+        <v>0.18</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6890243902439024</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2913622690159003</v>
+        <v>0.29</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0451513596716264</v>
+        <v>0.05</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3308270676691729</v>
+        <v>0.33</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0794582392776523</v>
+        <v>0.08</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1007462686567164</v>
+        <v>0.1</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4060150375939849</v>
+        <v>0.41</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1614349775784753</v>
+        <v>0.16</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -2753,40 +2753,40 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0503177966101694</v>
+        <v>0.05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.36</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0882079851439183</v>
+        <v>0.09</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0805585392051557</v>
+        <v>0.08</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2819548872180451</v>
+        <v>0.28</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.12531328320802</v>
+        <v>0.13</v>
       </c>
       <c r="AF7" t="n">
         <v>0.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0845070422535211</v>
+        <v>0.08</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1395348837209302</v>
+        <v>0.14</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1971830985915492</v>
+        <v>0.2</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.21</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -2798,85 +2798,85 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0422535211267605</v>
+        <v>0.04</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0704225352112676</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="AU7" t="n">
         <v>0.02</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.02</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0344827586206896</v>
+        <v>0.03</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.09375</v>
+        <v>0.09</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0504201680672268</v>
+        <v>0.05</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.02</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.018348623853211</v>
+        <v>0.02</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0310077519379844</v>
+        <v>0.03</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0414507772020725</v>
+        <v>0.04</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.04</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.078125</v>
+        <v>0.08</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0490196078431372</v>
+        <v>0.05</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.18</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.16</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.09</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.1095890410958904</v>
+        <v>0.11</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
@@ -2888,40 +2888,40 @@
         <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.1</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.2142857142857142</v>
+        <v>0.21</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.13</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.2666666666666666</v>
+        <v>0.27</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.1860465116279069</v>
+        <v>0.19</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.4347826086956521</v>
+        <v>0.43</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.3773584905660377</v>
+        <v>0.38</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.2272727272727272</v>
+        <v>0.23</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.65</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.3370786516853932</v>
+        <v>0.34</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -2933,130 +2933,130 @@
         <v>0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.34</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.4347826086956521</v>
+        <v>0.43</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.48</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.48</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.48</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.028735632183908</v>
+        <v>0.03</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0529100529100529</v>
+        <v>0.05</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.1889763779527559</v>
+        <v>0.19</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.14</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.1594684385382059</v>
+        <v>0.16</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.08887545344619099</v>
+        <v>0.09</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.84</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.1608315098468271</v>
+        <v>0.16</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.39</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0402298850574712</v>
+        <v>0.04</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0729166666666666</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.29</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0804597701149425</v>
+        <v>0.08</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.1261261261261261</v>
+        <v>0.13</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.18</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0428571428571428</v>
+        <v>0.04</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0689655172413793</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0467289719626168</v>
+        <v>0.05</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0704225352112676</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0495049504950495</v>
+        <v>0.05</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0584795321637426</v>
+        <v>0.06</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.13</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0470588235294117</v>
+        <v>0.05</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.2307692307692307</v>
+        <v>0.23</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0428571428571428</v>
+        <v>0.04</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.07228915662650599</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.1798029556650246</v>
+        <v>0.18</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.4147727272727273</v>
+        <v>0.41</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.2508591065292096</v>
+        <v>0.25</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.15625</v>
+        <v>0.16</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.3693181818181818</v>
+        <v>0.37</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.2195945945945946</v>
+        <v>0.22</v>
       </c>
       <c r="DX7" t="n">
         <v>0</v>
@@ -3068,67 +3068,67 @@
         <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.2435233160621761</v>
+        <v>0.24</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.2670454545454545</v>
+        <v>0.27</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.2547425474254742</v>
+        <v>0.25</v>
       </c>
       <c r="ED7" t="n">
         <v>0.25</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.3863636363636363</v>
+        <v>0.39</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.3035714285714285</v>
+        <v>0.3</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.949673202614379</v>
+        <v>0.95</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.3223873973818504</v>
+        <v>0.32</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.48136491634918</v>
+        <v>0.48</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.9218054672600128</v>
+        <v>0.92</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.6434435322831151</v>
+        <v>0.64</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.7578727296485038</v>
+        <v>0.76</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.9025413274117936</v>
+        <v>0.9</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.8116263589971155</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.8546728971962617</v>
+        <v>0.85</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.9429319371727748</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.3996006212558243</v>
+        <v>0.4</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.561321489792738</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.943907156673114</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.5413800754382072</v>
+        <v>0.54</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.6880992667794699</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3138,22 +3138,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1290465631929046</v>
+        <v>0.13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5914634146341463</v>
+        <v>0.59</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2118674918092464</v>
+        <v>0.21</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0528455284552845</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08724832214765101</v>
+        <v>0.09</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -3165,85 +3165,85 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1634746922024623</v>
+        <v>0.16</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4847870182555781</v>
+        <v>0.48</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2445012787723785</v>
+        <v>0.24</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1855123674911661</v>
+        <v>0.19</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4268292682926829</v>
+        <v>0.43</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0370741482965931</v>
+        <v>0.04</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2781954887218045</v>
+        <v>0.28</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0654288240495137</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0555084745762711</v>
+        <v>0.06</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4924812030075188</v>
+        <v>0.49</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0997715156130997</v>
+        <v>0.1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0778210116731517</v>
+        <v>0.08</v>
       </c>
       <c r="X8" t="n">
-        <v>0.075187969924812</v>
+        <v>0.08</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0764818355640535</v>
+        <v>0.08</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0355677154582763</v>
+        <v>0.04</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1954887218045112</v>
+        <v>0.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0601851851851851</v>
+        <v>0.06</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0698275862068965</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.3045112781954887</v>
+        <v>0.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1136044880785413</v>
+        <v>0.11</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.36</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2816901408450704</v>
+        <v>0.28</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.3149606299212598</v>
+        <v>0.31</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0895522388059701</v>
+        <v>0.09</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1690140845070422</v>
+        <v>0.17</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1170731707317073</v>
+        <v>0.12</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -3255,184 +3255,184 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.43</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.1267605633802817</v>
+        <v>0.13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.2</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.3661971830985915</v>
+        <v>0.37</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.3661971830985915</v>
+        <v>0.37</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3661971830985915</v>
+        <v>0.37</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.009881422924901099</v>
+        <v>0.01</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.078125</v>
+        <v>0.08</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.02</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0173535791757049</v>
+        <v>0.02</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0304761904761904</v>
+        <v>0.03</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.03</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.02</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0103806228373702</v>
+        <v>0.01</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.1875</v>
+        <v>0.19</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0196721311475409</v>
+        <v>0.02</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0118411000763941</v>
+        <v>0.01</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.484375</v>
+        <v>0.48</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0231170768083519</v>
+        <v>0.02</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.18</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.11</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0069252077562326</v>
+        <v>0.01</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.18</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0133333333333333</v>
+        <v>0.01</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0028612303290414</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0055020632737276</v>
+        <v>0.01</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0238095238095238</v>
+        <v>0.02</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.04</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.09</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0413223140495867</v>
+        <v>0.04</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.217391304347826</v>
+        <v>0.22</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.06944444444444441</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0789473684210526</v>
+        <v>0.08</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.52</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.1371428571428571</v>
+        <v>0.14</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.07913669064748199</v>
+        <v>0.08</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.48</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.1358024691358024</v>
+        <v>0.14</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0785714285714285</v>
+        <v>0.08</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.48</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.1349693251533742</v>
+        <v>0.13</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.2954545454545454</v>
+        <v>0.3</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.57</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.3880597014925373</v>
+        <v>0.39</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0114942528735632</v>
+        <v>0.01</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.02</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.2027027027027027</v>
+        <v>0.2</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.09</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.1209677419354838</v>
+        <v>0.12</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0420112471055243</v>
+        <v>0.04</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.7298850574712644</v>
+        <v>0.73</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.07944948389114791</v>
+        <v>0.08</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3444,76 +3444,76 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0402298850574712</v>
+        <v>0.04</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.07179487179487171</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0309278350515463</v>
+        <v>0.03</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0428571428571428</v>
+        <v>0.04</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.04</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0137931034482758</v>
+        <v>0.01</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0186046511627906</v>
+        <v>0.02</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0047732696897374</v>
+        <v>0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0081799591002045</v>
+        <v>0.01</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0263157894736842</v>
+        <v>0.03</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0142857142857142</v>
+        <v>0.01</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0185185185185185</v>
+        <v>0.02</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.24</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0571428571428571</v>
+        <v>0.06</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0919540229885057</v>
+        <v>0.09</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.1015831134564643</v>
+        <v>0.1</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.4375</v>
+        <v>0.44</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.164882226980728</v>
+        <v>0.16</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.11</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.3579545454545454</v>
+        <v>0.36</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.1649214659685864</v>
+        <v>0.16</v>
       </c>
       <c r="DX8" t="n">
         <v>0</v>
@@ -3525,67 +3525,67 @@
         <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0709459459459459</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.5965909090909091</v>
+        <v>0.6</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.1268115942028985</v>
+        <v>0.13</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.1653543307086614</v>
+        <v>0.17</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.2386363636363636</v>
+        <v>0.24</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.1953488372093023</v>
+        <v>0.2</v>
       </c>
       <c r="EG8" t="n">
         <v>0.75</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0026625249611715</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.005306212690692</v>
+        <v>0.01</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.87</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.2187708009762591</v>
+        <v>0.22</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.3497694217807733</v>
+        <v>0.35</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.865990990990991</v>
+        <v>0.87</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.1706234745950743</v>
+        <v>0.17</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.2850787766450417</v>
+        <v>0.29</v>
       </c>
       <c r="EP8" t="n">
         <v>1</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0031076581576026</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0061960610754591</v>
+        <v>0.01</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.9442379182156134</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.1127135566895939</v>
+        <v>0.11</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.2013875123885034</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -3595,454 +3595,454 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1863313990973565</v>
+        <v>0.19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5873983739837398</v>
+        <v>0.59</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2829172785119921</v>
+        <v>0.28</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2524875621890547</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4126016260162601</v>
+        <v>0.41</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3132716049382716</v>
+        <v>0.31</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3039049235993208</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3638211382113821</v>
+        <v>0.36</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3311748381128584</v>
+        <v>0.33</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2018561484918793</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.53</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2922732362821948</v>
+        <v>0.29</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2045977011494253</v>
+        <v>0.2</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7235772357723578</v>
+        <v>0.72</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3189964157706093</v>
+        <v>0.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1012544802867383</v>
+        <v>0.1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.424812030075188</v>
+        <v>0.42</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1635311143270622</v>
+        <v>0.16</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1812749003984063</v>
+        <v>0.18</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.34</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2369791666666666</v>
+        <v>0.24</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1924778761061946</v>
+        <v>0.19</v>
       </c>
       <c r="X9" t="n">
-        <v>0.3270676691729323</v>
+        <v>0.33</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2423398328690807</v>
+        <v>0.24</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1078767123287671</v>
+        <v>0.11</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.4736842105263157</v>
+        <v>0.47</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1757322175732217</v>
+        <v>0.18</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1783439490445859</v>
+        <v>0.18</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.21</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.193103448275862</v>
+        <v>0.19</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.52</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.2394366197183098</v>
+        <v>0.24</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.33</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.34</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.41</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.53</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.4084507042253521</v>
+        <v>0.41</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.4603174603174603</v>
+        <v>0.46</v>
       </c>
       <c r="AO9" t="n">
         <v>0.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.31</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.51</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.2676056338028169</v>
+        <v>0.27</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.3518518518518518</v>
+        <v>0.35</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0507246376811594</v>
+        <v>0.05</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.109375</v>
+        <v>0.11</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0693069306930693</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.08</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.15625</v>
+        <v>0.16</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.1030927835051546</v>
+        <v>0.1</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0916030534351145</v>
+        <v>0.09</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.1875</v>
+        <v>0.19</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.123076923076923</v>
+        <v>0.12</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0416666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.1</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.06</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.08035714285714279</v>
+        <v>0.08</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.140625</v>
+        <v>0.14</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.1022727272727272</v>
+        <v>0.1</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.14</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.1403508771929824</v>
+        <v>0.14</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.21</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.17</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.1372549019607843</v>
+        <v>0.14</v>
       </c>
       <c r="BQ9" t="n">
         <v>0.25</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.1772151898734177</v>
+        <v>0.18</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.15</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.14</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BV9" t="n">
         <v>0.4</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.2142857142857142</v>
+        <v>0.21</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.2790697674418604</v>
+        <v>0.28</v>
       </c>
       <c r="BY9" t="n">
         <v>0.5</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.4347826086956521</v>
+        <v>0.43</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.47</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.44</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.52</v>
       </c>
       <c r="CD9" t="n">
         <v>0.48</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.65</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.4761904761904761</v>
+        <v>0.48</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.61</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.48</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.54</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.61</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.61</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.61</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.38</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.19</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.25</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.2795698924731182</v>
+        <v>0.28</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.2988505747126437</v>
+        <v>0.3</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.2888888888888888</v>
+        <v>0.29</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.2606382978723404</v>
+        <v>0.26</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.2816091954022988</v>
+        <v>0.28</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.2707182320441988</v>
+        <v>0.27</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.4459459459459459</v>
+        <v>0.45</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.1885714285714285</v>
+        <v>0.19</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.2650602409638554</v>
+        <v>0.27</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.345679012345679</v>
+        <v>0.35</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.160919540229885</v>
+        <v>0.16</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.2196078431372549</v>
+        <v>0.22</v>
       </c>
       <c r="DC9" t="n">
         <v>0.1</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.0428571428571428</v>
+        <v>0.04</v>
       </c>
       <c r="DE9" t="n">
         <v>0.06</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.12</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.17</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.1420118343195266</v>
+        <v>0.14</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.1007751937984496</v>
+        <v>0.1</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.19</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.1306532663316583</v>
+        <v>0.13</v>
       </c>
       <c r="DL9" t="n">
         <v>0.15</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.0428571428571428</v>
+        <v>0.04</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DO9" t="n">
         <v>0.2</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.11</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.24</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.27</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.2546419098143236</v>
+        <v>0.25</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.2488262910798122</v>
+        <v>0.25</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.3011363636363636</v>
+        <v>0.3</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.2724935732647814</v>
+        <v>0.27</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.2871287128712871</v>
+        <v>0.29</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.3295454545454545</v>
+        <v>0.33</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.3068783068783068</v>
+        <v>0.31</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.2242152466367713</v>
+        <v>0.22</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.2840909090909091</v>
+        <v>0.28</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.2506265664160401</v>
+        <v>0.25</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.2606382978723404</v>
+        <v>0.26</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.2784090909090909</v>
+        <v>0.28</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.27</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.9463615903975994</v>
+        <v>0.95</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.5597958730863102</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.7034713508992053</v>
+        <v>0.7</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.928720083246618</v>
+        <v>0.93</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.7921011759485245</v>
+        <v>0.79</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.8549874266554903</v>
+        <v>0.85</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.9211700545364404</v>
+        <v>0.92</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.8244952296427779</v>
+        <v>0.82</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.870155719470788</v>
+        <v>0.87</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.9447552447552447</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.599911190053286</v>
+        <v>0.6</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.7338403041825095</v>
+        <v>0.73</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.9373501199040768</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.6938096294652762</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.7973989544817034</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1629125196437925</v>
+        <v>0.16</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6321138211382114</v>
+        <v>0.63</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2590587255310287</v>
+        <v>0.26</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2568807339449541</v>
+        <v>0.26</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1707317073170731</v>
+        <v>0.17</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.21</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -4079,40 +4079,40 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1388625592417061</v>
+        <v>0.14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5955284552845529</v>
+        <v>0.6</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2252113758647194</v>
+        <v>0.23</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1563593932322053</v>
+        <v>0.16</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5447154471544715</v>
+        <v>0.54</v>
       </c>
       <c r="P10" t="n">
-        <v>0.242973708068903</v>
+        <v>0.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0610042233693101</v>
+        <v>0.06</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4887218045112781</v>
+        <v>0.49</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1084689194826867</v>
+        <v>0.11</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2133333333333333</v>
+        <v>0.21</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1804511278195488</v>
+        <v>0.18</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1955193482688391</v>
+        <v>0.2</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -4124,40 +4124,40 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0655327663831916</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.4924812030075188</v>
+        <v>0.49</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1156732891832229</v>
+        <v>0.12</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0672538030424339</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.32</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1108910891089108</v>
+        <v>0.11</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.54</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0985915492957746</v>
+        <v>0.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.17</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1376811594202898</v>
+        <v>0.14</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.5352112676056338</v>
+        <v>0.54</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2190201729106628</v>
+        <v>0.22</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
@@ -4172,37 +4172,37 @@
         <v>0.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0985915492957746</v>
+        <v>0.1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.1647058823529411</v>
+        <v>0.16</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.29</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1126760563380281</v>
+        <v>0.11</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1616161616161616</v>
+        <v>0.16</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.03</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0759493670886076</v>
+        <v>0.08</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.1875</v>
+        <v>0.19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.11</v>
       </c>
       <c r="BA10" t="n">
         <v>0</v>
@@ -4214,40 +4214,40 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.1224489795918367</v>
+        <v>0.12</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.09375</v>
+        <v>0.09</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1061946902654867</v>
+        <v>0.11</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.053639846743295</v>
+        <v>0.05</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.08615384615384609</v>
+        <v>0.09</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.18</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.1025641025641025</v>
+        <v>0.1</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0373831775700934</v>
+        <v>0.04</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.29</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0661157024793388</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
@@ -4259,67 +4259,67 @@
         <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.13</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0930232558139534</v>
+        <v>0.09</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.67</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.24</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.29</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.26</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.27</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.2181818181818181</v>
+        <v>0.22</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.52</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.31</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.17</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.09</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.1142857142857142</v>
+        <v>0.11</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.27</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.13</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.18</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.83</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.217391304347826</v>
+        <v>0.22</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.34</v>
       </c>
       <c r="CN10" t="n">
         <v>0</v>
@@ -4334,19 +4334,19 @@
         <v>0.25</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.06321839080459769</v>
+        <v>0.06</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.1009174311926605</v>
+        <v>0.1</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0530546623794212</v>
+        <v>0.05</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.9482758620689656</v>
+        <v>0.95</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.1004872107186358</v>
+        <v>0.1</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4367,67 +4367,67 @@
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0390625</v>
+        <v>0.04</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.05</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0424242424242424</v>
+        <v>0.04</v>
       </c>
       <c r="DG10" t="n">
         <v>0.3</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.07433628318584071</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0857142857142857</v>
+        <v>0.09</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0458015267175572</v>
+        <v>0.05</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0352941176470588</v>
+        <v>0.04</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0857142857142857</v>
+        <v>0.09</v>
       </c>
       <c r="DN10" t="n">
         <v>0.05</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.17</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0142857142857142</v>
+        <v>0.01</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0263157894736842</v>
+        <v>0.03</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.1703296703296703</v>
+        <v>0.17</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.3522727272727273</v>
+        <v>0.35</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.2296296296296296</v>
+        <v>0.23</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.1224018475750577</v>
+        <v>0.12</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.3011363636363636</v>
+        <v>0.3</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.174055829228243</v>
+        <v>0.17</v>
       </c>
       <c r="DX10" t="n">
         <v>0</v>
@@ -4439,67 +4439,67 @@
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.3116883116883117</v>
+        <v>0.31</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.14</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.1897233201581027</v>
+        <v>0.19</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.1162483487450462</v>
+        <v>0.12</v>
       </c>
       <c r="EE10" t="n">
         <v>0.5</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.1886387995712754</v>
+        <v>0.19</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.94921875</v>
+        <v>0.95</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.2695806523186155</v>
+        <v>0.27</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.4199066874027994</v>
+        <v>0.42</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.9195938529088912</v>
+        <v>0.92</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.7435100954071444</v>
+        <v>0.74</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.8222304011777696</v>
+        <v>0.82</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.9200482121333869</v>
+        <v>0.92</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.5080985134235634</v>
+        <v>0.51</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.6546598056032018</v>
+        <v>0.65</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.9403927068723704</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.2975371644109164</v>
+        <v>0.3</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.4520478678577448</v>
+        <v>0.45</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.9549402823018458</v>
+        <v>0.95</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.3902817838917239</v>
+        <v>0.39</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.5541030083477713</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="11">
@@ -4509,22 +4509,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.19</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4024390243902439</v>
+        <v>0.4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2578125</v>
+        <v>0.26</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3162393162393162</v>
+        <v>0.32</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0752032520325203</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1215106732348111</v>
+        <v>0.12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4536,40 +4536,40 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1517027863777089</v>
+        <v>0.15</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4979674796747967</v>
+        <v>0.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.23</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1347626339969372</v>
+        <v>0.13</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3577235772357723</v>
+        <v>0.36</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1957730812013348</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0440873506386485</v>
+        <v>0.04</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4022556390977443</v>
+        <v>0.4</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07946528035647971</v>
+        <v>0.08</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1452054794520547</v>
+        <v>0.15</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1992481203007518</v>
+        <v>0.2</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1679873217115689</v>
+        <v>0.17</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -4581,40 +4581,40 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.050627784528149</v>
+        <v>0.05</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.4699248120300752</v>
+        <v>0.47</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.09140767824497251</v>
+        <v>0.09</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0446009389671361</v>
+        <v>0.04</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0679785330948121</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.22</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.028169014084507</v>
+        <v>0.03</v>
       </c>
       <c r="AH11" t="n">
         <v>0.05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.072595281306715</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.5633802816901409</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.1286173633440514</v>
+        <v>0.13</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -4629,37 +4629,37 @@
         <v>0.4</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0845070422535211</v>
+        <v>0.08</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.1395348837209302</v>
+        <v>0.14</v>
       </c>
       <c r="AR11" t="n">
         <v>0.4</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.028169014084507</v>
+        <v>0.03</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.05</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0097799511002444</v>
+        <v>0.01</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0169133192389006</v>
+        <v>0.02</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0082328726845045</v>
+        <v>0.01</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.4375</v>
+        <v>0.44</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0161616161616161</v>
+        <v>0.02</v>
       </c>
       <c r="BA11" t="n">
         <v>0</v>
@@ -4671,40 +4671,40 @@
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0199789695057833</v>
+        <v>0.02</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.296875</v>
+        <v>0.3</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0374384236453202</v>
+        <v>0.04</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0057692307692307</v>
+        <v>0.01</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.046875</v>
+        <v>0.05</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0102739726027397</v>
+        <v>0.01</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.11</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.09</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0098522167487684</v>
+        <v>0.01</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0184331797235023</v>
+        <v>0.02</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
@@ -4716,13 +4716,13 @@
         <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.09</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
@@ -4737,46 +4737,46 @@
         <v>0.25</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.09</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.13</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.074074074074074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.61</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.13</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.15</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.09</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.11</v>
       </c>
       <c r="CH11" t="n">
         <v>0.2</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.04</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="CK11" t="n">
         <v>1</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.04</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="CN11" t="n">
         <v>0</v>
@@ -4788,22 +4788,22 @@
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0198675496688741</v>
+        <v>0.02</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0172413793103448</v>
+        <v>0.02</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.0184615384615384</v>
+        <v>0.02</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0450256133728767</v>
+        <v>0.05</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.9597701149425288</v>
+        <v>0.96</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.086015967035797</v>
+        <v>0.09</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4824,67 +4824,67 @@
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.22</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.050632911392405</v>
+        <v>0.05</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.08139534883720929</v>
+        <v>0.08</v>
       </c>
       <c r="DG11" t="n">
         <v>0.1</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0897435897435897</v>
+        <v>0.09</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.17</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.048780487804878</v>
+        <v>0.05</v>
       </c>
       <c r="DL11" t="n">
         <v>0.75</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0428571428571428</v>
+        <v>0.04</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.081081081081081</v>
+        <v>0.08</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.11</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0449438202247191</v>
+        <v>0.04</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.07625</v>
+        <v>0.08</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.6931818181818182</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.1373873873873874</v>
+        <v>0.14</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.1015625</v>
+        <v>0.1</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.1477272727272727</v>
+        <v>0.15</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.1203703703703703</v>
+        <v>0.12</v>
       </c>
       <c r="DX11" t="n">
         <v>0</v>
@@ -4896,67 +4896,67 @@
         <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.145631067961165</v>
+        <v>0.15</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.2556818181818182</v>
+        <v>0.26</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.1855670103092783</v>
+        <v>0.19</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0726714431934493</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.8068181818181818</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.13</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.9625360230547551</v>
+        <v>0.96</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.074106944752607</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.1376184590028842</v>
+        <v>0.14</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.9169054441260746</v>
+        <v>0.92</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.0710006656312402</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.1317957166392092</v>
+        <v>0.13</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.9152704643370032</v>
+        <v>0.92</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.4242289771466607</v>
+        <v>0.42</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.5797453001819285</v>
+        <v>0.58</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.9423868312757202</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.1016197026847126</v>
+        <v>0.1</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.1834568395754055</v>
+        <v>0.18</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.9513201320132012</v>
+        <v>0.95</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.2558242733525627</v>
+        <v>0.26</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.4032173456898059</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -4966,67 +4966,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1365414710485133</v>
+        <v>0.14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.709349593495935</v>
+        <v>0.71</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229002624671916</v>
+        <v>0.23</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2421383647798742</v>
+        <v>0.24</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3130081300813008</v>
+        <v>0.31</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2730496453900709</v>
+        <v>0.27</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0020325203252032</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0039682539682539</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1319388576025744</v>
+        <v>0.13</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.67</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2202820685023505</v>
+        <v>0.22</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2138157894736842</v>
+        <v>0.21</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6605691056910569</v>
+        <v>0.66</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3230616302186879</v>
+        <v>0.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0551118210862619</v>
+        <v>0.06</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2593984962406015</v>
+        <v>0.26</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.09</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3833333333333333</v>
+        <v>0.38</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0864661654135338</v>
+        <v>0.09</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1411042944785276</v>
+        <v>0.14</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -5038,40 +5038,40 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0477341389728096</v>
+        <v>0.05</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2969924812030075</v>
+        <v>0.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.08224882873503379</v>
+        <v>0.08</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1354166666666666</v>
+        <v>0.14</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.1954887218045112</v>
+        <v>0.2</v>
       </c>
       <c r="AE12" t="n">
         <v>0.16</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.2112676056338028</v>
+        <v>0.21</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.31</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.34</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.3356643356643357</v>
+        <v>0.34</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
@@ -5083,40 +5083,40 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.61</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1549295774647887</v>
+        <v>0.15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.247191011235955</v>
+        <v>0.25</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.52</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.2112676056338028</v>
+        <v>0.21</v>
       </c>
       <c r="AT12" t="n">
         <v>0.3</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.037037037037037</v>
+        <v>0.04</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.046875</v>
+        <v>0.05</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0413793103448275</v>
+        <v>0.04</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.06818181818181809</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.046875</v>
+        <v>0.05</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.0555555555555555</v>
+        <v>0.06</v>
       </c>
       <c r="BA12" t="n">
         <v>0</v>
@@ -5128,40 +5128,40 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0241935483870967</v>
+        <v>0.02</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.046875</v>
+        <v>0.05</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0319148936170212</v>
+        <v>0.03</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.06944444444444441</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.15625</v>
+        <v>0.16</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.0961538461538461</v>
+        <v>0.1</v>
       </c>
       <c r="BJ12" t="n">
         <v>0.25</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.04</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0153452685421994</v>
+        <v>0.02</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.2142857142857142</v>
+        <v>0.21</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0286396181384248</v>
+        <v>0.03</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
@@ -5176,172 +5176,172 @@
         <v>0.1</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.04</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.05</v>
       </c>
       <c r="BV12" t="n">
         <v>0.5</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.11</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.18</v>
       </c>
       <c r="BY12" t="n">
         <v>0.5</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.217391304347826</v>
+        <v>0.22</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.303030303030303</v>
+        <v>0.3</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.1971830985915492</v>
+        <v>0.2</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.61</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.3</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.0555555555555555</v>
+        <v>0.06</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.04</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.048780487804878</v>
+        <v>0.05</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.217391304347826</v>
+        <v>0.22</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.32</v>
       </c>
       <c r="CK12" t="n">
         <v>0.75</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.13</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.22</v>
       </c>
       <c r="CN12" t="n">
         <v>0.5</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0057471264367816</v>
+        <v>0.01</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0113636363636363</v>
+        <v>0.01</v>
       </c>
       <c r="CQ12" t="n">
         <v>0.2</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0172413793103448</v>
+        <v>0.02</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.0317460317460317</v>
+        <v>0.03</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.1073318216175359</v>
+        <v>0.11</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.8160919540229885</v>
+        <v>0.82</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.1897127588510354</v>
+        <v>0.19</v>
       </c>
       <c r="CW12" t="n">
         <v>1</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0057471264367816</v>
+        <v>0.01</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0114285714285714</v>
+        <v>0.01</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.44</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0229885057471264</v>
+        <v>0.02</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0437158469945355</v>
+        <v>0.04</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.08</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0571428571428571</v>
+        <v>0.06</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0661157024793388</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.04</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.3285714285714285</v>
+        <v>0.33</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0767946577629382</v>
+        <v>0.08</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0251256281407035</v>
+        <v>0.03</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.037174721189591</v>
+        <v>0.04</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0483870967741935</v>
+        <v>0.05</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.0428571428571428</v>
+        <v>0.04</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.0454545454545454</v>
+        <v>0.05</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.26</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.1123595505617977</v>
+        <v>0.11</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.2205438066465256</v>
+        <v>0.22</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.4147727272727273</v>
+        <v>0.41</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.2879684418145957</v>
+        <v>0.29</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.2072072072072072</v>
+        <v>0.21</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.1306818181818181</v>
+        <v>0.13</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.1602787456445993</v>
+        <v>0.16</v>
       </c>
       <c r="DX12" t="n">
         <v>0</v>
@@ -5353,67 +5353,67 @@
         <v>0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.1971428571428571</v>
+        <v>0.2</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.3920454545454545</v>
+        <v>0.39</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.2623574144486692</v>
+        <v>0.26</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.1993243243243243</v>
+        <v>0.2</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.3352272727272727</v>
+        <v>0.34</v>
       </c>
       <c r="EF12" t="n">
         <v>0.25</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.9441233140655106</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.3261593077435101</v>
+        <v>0.33</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.4848284960422163</v>
+        <v>0.48</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.9061390157280568</v>
+        <v>0.91</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.7925449301087197</v>
+        <v>0.79</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.8455438513433542</v>
+        <v>0.85</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.8922071861875875</v>
+        <v>0.89</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.8484579542933215</v>
+        <v>0.85</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.8697827817582168</v>
+        <v>0.87</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.95419187554019</v>
+        <v>0.95</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.244952296427779</v>
+        <v>0.24</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.39</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.9341040462427744</v>
+        <v>0.93</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.7171067228755269</v>
+        <v>0.72</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.8113468055729885</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5423,67 +5423,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0994832041343669</v>
+        <v>0.1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9390243902439024</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1799065420560747</v>
+        <v>0.18</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1546391752577319</v>
+        <v>0.15</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0304878048780487</v>
+        <v>0.03</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0509337860780984</v>
+        <v>0.05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.081081081081081</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0182926829268292</v>
+        <v>0.02</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0298507462686567</v>
+        <v>0.03</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1148062463851937</v>
+        <v>0.11</v>
       </c>
       <c r="L13" t="n">
-        <v>0.806910569105691</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2010126582278481</v>
+        <v>0.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1741140215716486</v>
+        <v>0.17</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6890243902439024</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2779827798277983</v>
+        <v>0.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0276774969915764</v>
+        <v>0.03</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0864661654135338</v>
+        <v>0.09</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0419325432999088</v>
+        <v>0.04</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2302158273381295</v>
+        <v>0.23</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2406015037593984</v>
+        <v>0.24</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.24</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -5495,40 +5495,40 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.034296913277805</v>
+        <v>0.03</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.26</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0606848721283051</v>
+        <v>0.06</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.08125</v>
+        <v>0.08</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.34</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.13</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.67</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.028169014084507</v>
+        <v>0.03</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.054054054054054</v>
+        <v>0.05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1975308641975308</v>
+        <v>0.2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.2253521126760563</v>
+        <v>0.23</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.21</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -5552,28 +5552,28 @@
         <v>0.52</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.1830985915492957</v>
+        <v>0.18</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.27</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.046875</v>
+        <v>0.05</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0317460317460317</v>
+        <v>0.03</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0454545454545454</v>
+        <v>0.05</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0232558139534883</v>
+        <v>0.02</v>
       </c>
       <c r="BA13" t="n">
         <v>0</v>
@@ -5585,40 +5585,40 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0412371134020618</v>
+        <v>0.04</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0496894409937888</v>
+        <v>0.05</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.08</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.06956521739130429</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.14</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.11</v>
       </c>
       <c r="BL13" t="n">
         <v>0.12</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0325732899022801</v>
+        <v>0.03</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.36</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.06</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
@@ -5630,19 +5630,19 @@
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.06451612903225799</v>
+        <v>0.06</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.09</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BX13" t="n">
         <v>0.08</v>
@@ -5657,22 +5657,22 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0413793103448275</v>
+        <v>0.04</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.52</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0766773162939297</v>
+        <v>0.08</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.06</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.217391304347826</v>
+        <v>0.22</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0925925925925925</v>
+        <v>0.09</v>
       </c>
       <c r="CH13" t="n">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0.5</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.04</v>
       </c>
       <c r="CM13" t="n">
         <v>0.08</v>
@@ -5702,22 +5702,22 @@
         <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0905587668593449</v>
+        <v>0.09</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.2701149425287356</v>
+        <v>0.27</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.1356421356421356</v>
+        <v>0.14</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0971718636693255</v>
+        <v>0.1</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.7701149425287356</v>
+        <v>0.77</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.1725692208628461</v>
+        <v>0.17</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5729,76 +5729,76 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.32</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0402298850574712</v>
+        <v>0.04</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.11</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0454545454545454</v>
+        <v>0.05</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0482456140350877</v>
+        <v>0.05</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.1571428571428571</v>
+        <v>0.16</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0738255033557047</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0232558139534883</v>
+        <v>0.02</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.03</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.09</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0142857142857142</v>
+        <v>0.01</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0246913580246913</v>
+        <v>0.02</v>
       </c>
       <c r="DO13" t="n">
         <v>0.2</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0285714285714285</v>
+        <v>0.03</v>
       </c>
       <c r="DQ13" t="n">
         <v>0.05</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.26</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0795454545454545</v>
+        <v>0.08</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.12</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.1535269709543568</v>
+        <v>0.15</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.2102272727272727</v>
+        <v>0.21</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.1774580335731415</v>
+        <v>0.18</v>
       </c>
       <c r="DX13" t="n">
         <v>0</v>
@@ -5810,67 +5810,67 @@
         <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.29</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0795454545454545</v>
+        <v>0.08</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.1244444444444444</v>
+        <v>0.12</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.2432432432432432</v>
+        <v>0.24</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.1534090909090909</v>
+        <v>0.15</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.1881533101045296</v>
+        <v>0.19</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.9190751445086706</v>
+        <v>0.92</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0352784557355225</v>
+        <v>0.04</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0679487179487179</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.8621323529411765</v>
+        <v>0.86</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.7284224539605059</v>
+        <v>0.73</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.7896572459410703</v>
+        <v>0.79</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.8785024154589371</v>
+        <v>0.88</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.8069669403150654</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.8412166069156933</v>
+        <v>0.84</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.912568306010929</v>
+        <v>0.91</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0370534723763035</v>
+        <v>0.04</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0712153518123667</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.9144865286997268</v>
+        <v>0.91</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.5196361215886399</v>
+        <v>0.52</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.6627051499717035</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="14">
@@ -5880,67 +5880,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2359437751004016</v>
+        <v>0.24</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4776422764227642</v>
+        <v>0.48</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3158602150537634</v>
+        <v>0.32</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.28</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2540650406504065</v>
+        <v>0.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2653927813163482</v>
+        <v>0.27</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0040650406504065</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0079365079365079</v>
+        <v>0.01</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2589595375722543</v>
+        <v>0.26</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4552845528455284</v>
+        <v>0.46</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3301400147383935</v>
+        <v>0.33</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2289473684210526</v>
+        <v>0.23</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5304878048780488</v>
+        <v>0.53</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3198529411764705</v>
+        <v>0.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1163337250293772</v>
+        <v>0.12</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3721804511278195</v>
+        <v>0.37</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1772605192479856</v>
+        <v>0.18</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1945137157107231</v>
+        <v>0.19</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2932330827067669</v>
+        <v>0.29</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2338830584707646</v>
+        <v>0.23</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -5952,40 +5952,40 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1362467866323907</v>
+        <v>0.14</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3984962406015037</v>
+        <v>0.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.2030651340996168</v>
+        <v>0.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1349765258215962</v>
+        <v>0.13</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.4323308270676692</v>
+        <v>0.43</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.2057245080500894</v>
+        <v>0.21</v>
       </c>
       <c r="AF14" t="n">
         <v>0.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.2112676056338028</v>
+        <v>0.21</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.3125</v>
+        <v>0.31</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.352112676056338</v>
+        <v>0.35</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.3205128205128205</v>
+        <v>0.32</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -5997,40 +5997,40 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.63</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.2394366197183098</v>
+        <v>0.24</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.35</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.59</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.2253521126760563</v>
+        <v>0.23</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0571428571428571</v>
+        <v>0.06</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.06</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.05</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.15625</v>
+        <v>0.16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.07168458781362</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BA14" t="n">
         <v>0</v>
@@ -6042,40 +6042,40 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0809248554913294</v>
+        <v>0.08</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1181434599156118</v>
+        <v>0.12</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0684931506849315</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.078125</v>
+        <v>0.08</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.072992700729927</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.1034482758620689</v>
+        <v>0.1</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.11</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.11</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0396825396825396</v>
+        <v>0.04</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.54</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0738916256157635</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
@@ -6090,52 +6090,52 @@
         <v>0.1</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.18</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.24</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.391304347826087</v>
+        <v>0.39</v>
       </c>
       <c r="CA14" t="n">
         <v>0.5</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.19</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.78</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.31</v>
       </c>
       <c r="CE14" t="n">
         <v>0.2</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.1739130434782608</v>
+        <v>0.17</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.1860465116279069</v>
+        <v>0.19</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.58</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.3</v>
       </c>
       <c r="CJ14" t="n">
         <v>0.4</v>
@@ -6144,10 +6144,10 @@
         <v>0.4</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.26</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.32</v>
       </c>
       <c r="CN14" t="n">
         <v>0</v>
@@ -6159,67 +6159,67 @@
         <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.288135593220339</v>
+        <v>0.29</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.09770114942528731</v>
+        <v>0.1</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.1459227467811159</v>
+        <v>0.15</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.09282970550576181</v>
+        <v>0.09</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.83</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.1670506912442396</v>
+        <v>0.17</v>
       </c>
       <c r="CW14" t="n">
         <v>1</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.0114942528735632</v>
+        <v>0.01</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0227272727272727</v>
+        <v>0.02</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.54</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.0402298850574712</v>
+        <v>0.04</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0748663101604278</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0142857142857142</v>
+        <v>0.01</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.0235294117647058</v>
+        <v>0.02</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0427350427350427</v>
+        <v>0.04</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.06578947368421049</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0245901639344262</v>
+        <v>0.02</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.0428571428571428</v>
+        <v>0.04</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
       <c r="DL14" t="n">
         <v>0</v>
@@ -6234,28 +6234,28 @@
         <v>0.25</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.0142857142857142</v>
+        <v>0.01</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.027027027027027</v>
+        <v>0.03</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.15</v>
       </c>
       <c r="DS14" t="n">
         <v>0.5</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.2318840579710145</v>
+        <v>0.23</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.18</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.2897727272727273</v>
+        <v>0.29</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.2193548387096774</v>
+        <v>0.22</v>
       </c>
       <c r="DX14" t="n">
         <v>0</v>
@@ -6267,67 +6267,67 @@
         <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.211864406779661</v>
+        <v>0.21</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.2840909090909091</v>
+        <v>0.28</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.2427184466019417</v>
+        <v>0.24</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.1824175824175824</v>
+        <v>0.18</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.4715909090909091</v>
+        <v>0.47</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.2630744849445325</v>
+        <v>0.26</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.9321982365460626</v>
+        <v>0.93</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.6802751275793211</v>
+        <v>0.68</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.7865572088250384</v>
+        <v>0.79</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.922279792746114</v>
+        <v>0.92</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.7503882848901708</v>
+        <v>0.75</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.8275018350868608</v>
+        <v>0.83</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.9000484027105518</v>
+        <v>0.9</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.8251608608830707</v>
+        <v>0.83</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.8609792800092604</v>
+        <v>0.86</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.9187231759656652</v>
+        <v>0.92</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.7599289993343687</v>
+        <v>0.76</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.8318154219793564</v>
+        <v>0.83</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.9405306495882892</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.6842689150210783</v>
+        <v>0.68</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.7921911122527614</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="15">
@@ -6337,454 +6337,454 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.16600427961901</v>
+        <v>0.167</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6121951219512195</v>
+        <v>0.6119999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2541176204697165</v>
+        <v>0.254</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2548575904689868</v>
+        <v>0.255</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1949186991869918</v>
+        <v>0.194</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2012523038801914</v>
+        <v>0.201</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06349860046804018</v>
+        <v>0.063</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0388211382113821</v>
+        <v>0.038</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03729303462862769</v>
+        <v>0.037</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1757906290880005</v>
+        <v>0.175</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5780458945563086</v>
+        <v>0.579</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2597192299655305</v>
+        <v>0.259</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1981058904034488</v>
+        <v>0.197</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5654471544715446</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2892052485773523</v>
+        <v>0.289</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06634228446302234</v>
+        <v>0.068</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3357142857142857</v>
+        <v>0.335</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1074895133368155</v>
+        <v>0.108</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1875467496130279</v>
+        <v>0.188</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2736842105263158</v>
+        <v>0.273</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1855737928862974</v>
+        <v>0.186</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02702988877793463</v>
+        <v>0.027</v>
       </c>
       <c r="X15" t="n">
-        <v>0.04022556390977443</v>
+        <v>0.041</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03188216684331342</v>
+        <v>0.032</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.07939197180219608</v>
+        <v>0.08</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.3669172932330827</v>
+        <v>0.3669999999999999</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1031358045806164</v>
+        <v>0.104</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1362349960173983</v>
+        <v>0.136</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.2481203007518797</v>
+        <v>0.247</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1390394838514291</v>
+        <v>0.139</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.4331390831390831</v>
+        <v>0.4349999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1323943661971831</v>
+        <v>0.132</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.1888153064613405</v>
+        <v>0.189</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.2301860466819928</v>
+        <v>0.23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.3338028169014085</v>
+        <v>0.3350000000000001</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.245237869234484</v>
+        <v>0.246</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.05272727272727272</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.04084507042253521</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.04603174603174603</v>
+        <v>0.046</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.4164550264550265</v>
+        <v>0.416</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.1025039123630673</v>
+        <v>0.101</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.1580665138375485</v>
+        <v>0.16</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.496748117645155</v>
+        <v>0.4980000000000001</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.1732394366197182</v>
+        <v>0.173</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.2389190047187796</v>
+        <v>0.238</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.02799944773147704</v>
+        <v>0.028</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.04375</v>
+        <v>0.045</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.02797758294994137</v>
+        <v>0.029</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.05088362523707653</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.1359375</v>
+        <v>0.137</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.05786842769037463</v>
+        <v>0.05800000000000001</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0144128305960367</v>
+        <v>0.014</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.021875</v>
+        <v>0.023</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.01620441036311649</v>
+        <v>0.016</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.03901871316733401</v>
+        <v>0.038</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.1095238095238095</v>
+        <v>0.11</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.04855962185628326</v>
+        <v>0.049</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.05173269374751074</v>
+        <v>0.052</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.134375</v>
+        <v>0.135</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.0602141587548472</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.1480196049161566</v>
+        <v>0.147</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.09285714285714282</v>
+        <v>0.094</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.09545173107897324</v>
+        <v>0.095</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.06490746981441227</v>
+        <v>0.06600000000000002</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.2428571428571428</v>
+        <v>0.243</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.07887341666388183</v>
+        <v>0.079</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01401161322898257</v>
+        <v>0.014</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.03214285714285714</v>
+        <v>0.032</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.01827172531471453</v>
+        <v>0.019</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.07842283866951796</v>
+        <v>0.07799999999999999</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.08165024630541869</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.07318921545479933</v>
+        <v>0.07300000000000001</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.3322746697746698</v>
+        <v>0.332</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.1142857142857142</v>
+        <v>0.114</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.162647891418813</v>
+        <v>0.163</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.4167895016709245</v>
+        <v>0.417</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.2652173913043478</v>
+        <v>0.265</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.2765259772540022</v>
+        <v>0.277</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.1887599534438196</v>
+        <v>0.189</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.5869565217391304</v>
+        <v>0.5860000000000001</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.2683217640903152</v>
+        <v>0.27</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.1089028596127623</v>
+        <v>0.11</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.1739130434782608</v>
+        <v>0.174</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.1164809362748481</v>
+        <v>0.117</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.3940570731950043</v>
+        <v>0.392</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.282</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.2907370060492584</v>
+        <v>0.29</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.6065744400527009</v>
+        <v>0.607</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.261</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.2949760267249759</v>
+        <v>0.295</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.1545977011494253</v>
+        <v>0.154</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.02356321839080459</v>
+        <v>0.024</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.03393694747143022</v>
+        <v>0.033</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.2006954407888822</v>
+        <v>0.2</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.118</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.1256628504428825</v>
+        <v>0.127</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.09450332450881457</v>
+        <v>0.095</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.7505747126436781</v>
+        <v>0.75</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.1508996955747164</v>
+        <v>0.151</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.3001501501501501</v>
+        <v>0.301</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.02517898193760261</v>
+        <v>0.026</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.03832438628974772</v>
+        <v>0.03800000000000001</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.3557481099147766</v>
+        <v>0.356</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.04080459770114939</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.06523662898828722</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.082489229583586</v>
+        <v>0.083</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.03285714285714281</v>
+        <v>0.03200000000000001</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.04011312825499996</v>
+        <v>0.041</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.05506799987572436</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.1585714285714285</v>
+        <v>0.159</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.07370009396125654</v>
+        <v>0.07400000000000002</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.05168507775876121</v>
+        <v>0.051</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.05571428571428567</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.04106518769733485</v>
+        <v>0.042</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.1234239428137361</v>
+        <v>0.124</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.0271428571428571</v>
+        <v>0.026</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.03334709932749145</v>
+        <v>0.034</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.1901151067714535</v>
+        <v>0.191</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.03428571428571423</v>
+        <v>0.03299999999999999</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.05571795518240034</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.1587994362208803</v>
+        <v>0.159</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.3301136363636364</v>
+        <v>0.329</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.1837932287912664</v>
+        <v>0.183</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.1590177778984102</v>
+        <v>0.159</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.2659090909090909</v>
+        <v>0.266</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.1903980653192061</v>
+        <v>0.189</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.02871287128712871</v>
+        <v>0.029</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.03295454545454544</v>
+        <v>0.033</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.03068783068783068</v>
+        <v>0.031</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.2084276176978035</v>
+        <v>0.209</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.2721590909090909</v>
+        <v>0.2720000000000001</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.2023909423843904</v>
+        <v>0.202</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.183026215383798</v>
+        <v>0.183</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.3823863636363636</v>
+        <v>0.383</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.2230169071245058</v>
+        <v>0.223</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.9111761997923246</v>
+        <v>0.9109999999999999</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.3382737963168404</v>
+        <v>0.338</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.4434458153388156</v>
+        <v>0.444</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.8979269035803833</v>
+        <v>0.898</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.642334146882627</v>
+        <v>0.641</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.7085375664875423</v>
+        <v>0.709</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.8899528707373783</v>
+        <v>0.8910000000000002</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.6858220545817617</v>
+        <v>0.6860000000000002</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.7486475153704972</v>
+        <v>0.748</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.9337737698712134</v>
+        <v>0.9319999999999998</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.3344532049897154</v>
+        <v>0.334</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.4360307316815352</v>
+        <v>0.4349999999999999</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.9308404201730454</v>
+        <v>0.9289999999999999</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.5595739960062126</v>
+        <v>0.5589999999999999</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.6642898957086981</v>
+        <v>0.663</v>
       </c>
     </row>
   </sheetData>
